--- a/biology/Zoologie/Chauve-souris_rousse/Chauve-souris_rousse.xlsx
+++ b/biology/Zoologie/Chauve-souris_rousse/Chauve-souris_rousse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lasiurus borealis
 La Chauve-souris rousse (Lasiurus borealis) est une espèce de chauve-souris de la famille des Vespertilionidae qui se trouve en Amérique du Nord.
@@ -512,7 +524,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce habite dans une zone d'expansion qui s'étend sur tout l'Est de l'Amérique du Nord et jusque qu'aux îles des Bermudes. On la retrouve essentiellement dans des lieux dégagés. Les chercheurs les capturent en général à proximité de cours d'eau et de routes.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est de taille moyenne par rapport à la famille des Vespertilionidae, elle pèse de 9,5 à 14 grammes et mesure environ 11,2 cm de long. Les adultes sont dimorphiques ce qui signifie que les mâles ont une fourrure rousse alors que les femelles ont une coloration châtain avec des traces blanches.
 L'animal se nourrit d'insectes dont une majorité de lépidoptères. L'animal se déplace et se positionne grâce à l'Echolocation dans des fréquences allant de 35 à 50 kHz.
